--- a/dps_dashboard/poc per school.xlsx
+++ b/dps_dashboard/poc per school.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rheatejwani/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scholar/Desktop/Visualizing DPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1196D84A-4E4D-0942-876A-CB368AD91288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD153D2-BE01-6C4D-8643-C60878186FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15640" xr2:uid="{8A77730F-63B3-7A4A-B171-15DB83AB20AC}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{8A77730F-63B3-7A4A-B171-15DB83AB20AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>place</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>Durham County</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>80.7</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
